--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugurg\Documents\GitHub\movie-recommendation\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugur\Documents\GitHub\movie-recommendation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046C31B9-3B2E-4919-A128-24E5A59965CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9194BE5D-838F-4F55-8AA4-BBAD37E98A65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="1965" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,26 +31,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
-  <si>
-    <t>AE
-RMSE</t>
-  </si>
-  <si>
-    <t>RAW
-RMSE</t>
-  </si>
-  <si>
-    <t>SVD++</t>
-  </si>
-  <si>
-    <t>SVD</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>KNNBasic</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>AE-SVD++</t>
+  </si>
+  <si>
+    <t>RAW-SVD++</t>
+  </si>
+  <si>
+    <t>AE-SVD</t>
+  </si>
+  <si>
+    <t>RAW-SVD</t>
+  </si>
+  <si>
+    <t>AE-Mean</t>
+  </si>
+  <si>
+    <t>RAW-Mean</t>
+  </si>
+  <si>
+    <t>AE-KNNBasic</t>
+  </si>
+  <si>
+    <t>RAW-KNNBasic</t>
   </si>
 </sst>
 </file>
@@ -101,13 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -115,7 +116,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,233 +396,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.1167</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.135</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.9819</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.92210000000000003</v>
+      </c>
       <c r="B3" s="1">
-        <v>0.92069999999999996</v>
+        <v>0.92459999999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>0.92310000000000003</v>
+        <v>0.93830000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>0.93049999999999999</v>
+        <v>0.93759999999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.93520000000000003</v>
-      </c>
-      <c r="F3">
-        <v>1.1167</v>
-      </c>
-      <c r="G3">
-        <v>1.135</v>
-      </c>
-      <c r="H3">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="I3">
-        <v>0.9819</v>
+        <v>1.1103000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.1303000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.98429999999999995</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.92059999999999997</v>
+      </c>
       <c r="B4" s="1">
-        <v>0.92210000000000003</v>
+        <v>0.9153</v>
       </c>
       <c r="C4" s="1">
-        <v>0.92459999999999998</v>
+        <v>0.93159999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>0.93830000000000002</v>
+        <v>0.9365</v>
       </c>
       <c r="E4" s="1">
-        <v>0.93759999999999999</v>
-      </c>
-      <c r="F4">
-        <v>1.1103000000000001</v>
-      </c>
-      <c r="G4">
-        <v>1.1303000000000001</v>
-      </c>
-      <c r="H4">
-        <v>0.96640000000000004</v>
-      </c>
-      <c r="I4">
-        <v>0.98429999999999995</v>
+        <v>1.1148</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.1273</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.98460000000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.92130000000000001</v>
+      </c>
       <c r="B5" s="1">
-        <v>0.92059999999999997</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>0.9153</v>
+        <v>0.92910000000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>0.93159999999999998</v>
+        <v>0.93030000000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.9365</v>
-      </c>
-      <c r="F5">
-        <v>1.1148</v>
-      </c>
-      <c r="G5">
-        <v>1.1273</v>
-      </c>
-      <c r="H5">
-        <v>0.97819999999999996</v>
-      </c>
-      <c r="I5">
-        <v>0.98460000000000003</v>
+        <v>1.1221000000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.1267</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.98880000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.91930000000000001</v>
+      </c>
       <c r="B6" s="1">
-        <v>0.92130000000000001</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="C6" s="1">
-        <v>0.91900000000000004</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>0.92910000000000004</v>
+        <v>0.9325</v>
       </c>
       <c r="E6" s="1">
-        <v>0.93030000000000002</v>
-      </c>
-      <c r="F6">
-        <v>1.1221000000000001</v>
-      </c>
-      <c r="G6">
-        <v>1.1267</v>
-      </c>
-      <c r="H6">
-        <v>0.97289999999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.98880000000000001</v>
+        <v>1.1136999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.1234999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.98609999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>0.91930000000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.9325</v>
-      </c>
-      <c r="F7">
-        <v>1.1136999999999999</v>
-      </c>
-      <c r="G7">
-        <v>1.1234999999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="I7">
-        <v>0.98609999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <f>AVERAGE(B3:B7)</f>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>AVERAGE(A2:A6)</f>
         <v>0.92080000000000006</v>
       </c>
-      <c r="C8" s="3">
-        <f>AVERAGE(C3:C7)</f>
+      <c r="B7" s="2">
+        <f>AVERAGE(B2:B6)</f>
         <v>0.92159999999999997</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:I8" si="0">AVERAGE(D3:D7)</f>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:H7" si="0">AVERAGE(C2:C6)</f>
         <v>0.93290000000000006</v>
       </c>
-      <c r="E8" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>0.93441999999999992</v>
       </c>
-      <c r="F8" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>1.1155200000000001</v>
       </c>
-      <c r="G8" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>1.1285599999999998</v>
       </c>
-      <c r="H8" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>0.97456000000000009</v>
       </c>
-      <c r="I8" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>0.98514000000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
